--- a/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_2.xlsx
+++ b/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_2.xlsx
@@ -1,7 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
@@ -81,8 +84,8 @@
         <rFont val="Inconsolata"/>
         <b/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
+        <sz val="11"/>
+        <u val="single"/>
       </rPr>
       <t>tag=</t>
     </r>
@@ -91,8 +94,8 @@
         <rFont val="Inconsolata"/>
         <b/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <sz val="11"/>
+        <u val="single"/>
       </rPr>
       <t>grey</t>
     </r>
@@ -109,8 +112,8 @@
         <rFont val="Inconsolata"/>
         <b/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <sz val="11"/>
+        <u val="single"/>
       </rPr>
       <t>https://live.virtualandemo.com/api/pets/findByTags?tags=</t>
     </r>
@@ -119,8 +122,8 @@
         <rFont val="Inconsolata"/>
         <b/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
+        <sz val="11"/>
+        <u val="single"/>
       </rPr>
       <t>[tag]</t>
     </r>
@@ -154,51 +157,77 @@
   </si>
   <si>
     <t>Id=[petId];petName=doggie</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>ExcludeFields</t>
+  </si>
+  <si>
+    <t>StatusCode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
       <b/>
       <color rgb="FF008000"/>
-      <name val="Consolas"/>
-    </font>
-    <font/>
-    <font>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <color rgb="FF000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <color rgb="FF505050"/>
-      <name val="Arial"/>
-    </font>
-    <font>
+      <sz val="9"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Docs-Inconsolata"/>
       <b/>
-      <u/>
-      <sz val="11.0"/>
       <color rgb="FF1155CC"/>
-      <name val="Docs-Inconsolata"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Inconsolata"/>
       <b/>
-      <u/>
-      <sz val="11.0"/>
       <color rgb="FF1155CC"/>
-      <name val="Inconsolata"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="3">
@@ -219,36 +248,26 @@
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -464,20 +483,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="3" max="3" width="176.14"/>
-    <col customWidth="1" min="6" max="6" width="21.71"/>
-    <col customWidth="1" min="8" max="8" width="23.29"/>
-    <col customWidth="1" min="12" max="12" width="21.14"/>
+    <col min="2" max="2" width="18.14" customWidth="1"/>
+    <col min="3" max="3" width="176.14" customWidth="1"/>
+    <col min="7" max="7" width="23.29" customWidth="1"/>
+    <col min="11" max="11" width="21.14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -497,27 +517,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -535,22 +552,22 @@
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="3">
-        <v>200.0</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="J2" s="3">
+        <v>200</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -567,16 +584,16 @@
       <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="1">
-        <v>200.0</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="J3" s="1">
+        <v>200</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -596,16 +613,16 @@
       <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="3">
-        <v>200.0</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="J4" s="3">
+        <v>200</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -616,10 +633,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="M2"/>
-    <hyperlink r:id="rId3" ref="C3"/>
-    <hyperlink r:id="rId4" ref="C4"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
   </hyperlinks>
   <drawing r:id="rId5"/>
 </worksheet>
